--- a/MuCustomUiWidget/CommonDefine/ColorDefine.xlsx
+++ b/MuCustomUiWidget/CommonDefine/ColorDefine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Projects\MyCustomUIWidget\CommonDefine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Projects\MyCustomUIWidget\MuCustomUiWidget\CommonDefine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B7954C-3B73-4322-B90F-2127BBAE923B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F459EE6C-71C8-4742-8E78-6AEF37EBA039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6105" yWindow="4260" windowWidth="28800" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
   <si>
     <t>命名空间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,6 +221,17 @@
   <si>
     <t>DefaultShadowOffset = 2;          /// 默认阴影偏移</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HoverBackground</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PressedBackground</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>240, 240, 240</t>
   </si>
 </sst>
 </file>
@@ -252,7 +263,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,12 +350,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0F8FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFF8DC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -357,12 +362,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAFAFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFECF6FF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -406,6 +405,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE35D59"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5F5FB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -499,14 +516,16 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -515,6 +534,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC5F5FB"/>
+      <color rgb="FFE6E6E6"/>
+      <color rgb="FFF0F0F0"/>
       <color rgb="FF7EEEEE"/>
       <color rgb="FFD9534F"/>
       <color rgb="FFE35D59"/>
@@ -522,9 +544,6 @@
       <color rgb="FFFAB758"/>
       <color rgb="FF5BC0DE"/>
       <color rgb="FF65CAE8"/>
-      <color rgb="FF5CB85C"/>
-      <color rgb="FF66C266"/>
-      <color rgb="FF337AB7"/>
     </mruColors>
   </colors>
   <extLst>
@@ -801,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -826,10 +845,10 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1010,273 +1029,291 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="11">
-        <v>242255242255</v>
-      </c>
-      <c r="D23" s="18"/>
+        <v>55</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C24" s="11">
-        <v>240248255255</v>
-      </c>
-      <c r="D24" s="19"/>
+        <v>230230230</v>
+      </c>
+      <c r="D24" s="33"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C25" s="11">
-        <v>255248220255</v>
-      </c>
-      <c r="D25" s="20"/>
+        <v>242255242255</v>
+      </c>
+      <c r="D25" s="18"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C26" s="11">
-        <v>255235235255</v>
-      </c>
-      <c r="D26" s="21"/>
+        <v>240248255255</v>
+      </c>
+      <c r="D26" s="31"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C27" s="11">
-        <v>250250250250</v>
-      </c>
-      <c r="D27" s="22"/>
+        <v>255248220255</v>
+      </c>
+      <c r="D27" s="19"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C28" s="11">
-        <v>236246255250</v>
-      </c>
-      <c r="D28" s="23"/>
+        <v>255235235255</v>
+      </c>
+      <c r="D28" s="20"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C29" s="11">
-        <v>255248220250</v>
-      </c>
-      <c r="D29" s="20"/>
+        <v>197245251250</v>
+      </c>
+      <c r="D29" s="34"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C30" s="11">
-        <v>255235235250</v>
+        <v>236246255250</v>
       </c>
       <c r="D30" s="21"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C31" s="11">
-        <v>242255242250</v>
-      </c>
-      <c r="D31" s="18"/>
+        <v>255248220250</v>
+      </c>
+      <c r="D31" s="19"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="B32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="11">
+        <v>255235235250</v>
+      </c>
+      <c r="D32" s="20"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="24"/>
+        <v>32</v>
+      </c>
+      <c r="C33" s="11">
+        <v>242255242250</v>
+      </c>
+      <c r="D33" s="18"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="5"/>
+      <c r="A34" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="D35" s="22"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="B39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="25"/>
+        <v>12</v>
+      </c>
+      <c r="D40" s="9"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="25"/>
+      <c r="A41" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="25"/>
+        <v>37</v>
+      </c>
+      <c r="D42" s="23"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="B43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="D44" s="23"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="27"/>
-      <c r="E45" s="6"/>
+      <c r="A45" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="28"/>
-      <c r="E46" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="D46" s="24"/>
+      <c r="E46" s="5"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D47" s="29"/>
-      <c r="E47" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="D47" s="25"/>
+      <c r="E47" s="6"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="26"/>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="27"/>
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="30"/>
-      <c r="E48" s="9"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+      <c r="D50" s="28"/>
+      <c r="E50" s="9"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="3" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="3" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B52" s="3" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B53" s="3" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B54" s="3" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B55" s="3" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B56" s="3" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B57" s="3" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="3" t="s">
         <v>54</v>
       </c>
     </row>

--- a/MuCustomUiWidget/CommonDefine/ColorDefine.xlsx
+++ b/MuCustomUiWidget/CommonDefine/ColorDefine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Projects\MyCustomUIWidget\MuCustomUiWidget\CommonDefine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F459EE6C-71C8-4742-8E78-6AEF37EBA039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C768CDAF-CFEE-4F2A-A0CA-3FD2AF1BA5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6105" yWindow="4260" windowWidth="28800" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21015" yWindow="2895" windowWidth="28800" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -480,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -516,16 +516,15 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -822,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -845,10 +844,10 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1034,7 +1033,7 @@
       <c r="C23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="32"/>
+      <c r="D23" s="29"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
@@ -1043,7 +1042,7 @@
       <c r="C24" s="11">
         <v>230230230</v>
       </c>
-      <c r="D24" s="33"/>
+      <c r="D24" s="30"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
@@ -1061,7 +1060,6 @@
       <c r="C26" s="11">
         <v>240248255255</v>
       </c>
-      <c r="D26" s="31"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
@@ -1088,7 +1086,7 @@
       <c r="C29" s="11">
         <v>197245251250</v>
       </c>
-      <c r="D29" s="34"/>
+      <c r="D29" s="31"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">

--- a/MuCustomUiWidget/CommonDefine/ColorDefine.xlsx
+++ b/MuCustomUiWidget/CommonDefine/ColorDefine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Projects\MyCustomUIWidget\MuCustomUiWidget\CommonDefine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C768CDAF-CFEE-4F2A-A0CA-3FD2AF1BA5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717553B3-02B5-4918-BB13-5EC233BBE992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21015" yWindow="2895" windowWidth="28800" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="45" windowWidth="28800" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>命名空间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,17 +128,6 @@
   </si>
   <si>
     <t>ToolTipsInfo</t>
-  </si>
-  <si>
-    <t>ToolTipsWarning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ToolTipsError</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ToolTipsSuccess</t>
   </si>
   <si>
     <t>border_color</t>
@@ -263,7 +252,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,12 +316,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8F9FA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -518,7 +501,6 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -819,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -844,10 +826,10 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1010,309 +992,273 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="11">
-        <v>248249250255</v>
+        <v>25</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="D21" s="16"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="17"/>
+        <v>54</v>
+      </c>
+      <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="C23" s="11">
+        <v>230230230</v>
       </c>
       <c r="D23" s="29"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="C24" s="11">
-        <v>230230230</v>
-      </c>
-      <c r="D24" s="30"/>
+        <v>242255242255</v>
+      </c>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C25" s="11">
-        <v>242255242255</v>
-      </c>
-      <c r="D25" s="18"/>
+        <v>240248255255</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" s="11">
-        <v>240248255255</v>
-      </c>
+        <v>255248220255</v>
+      </c>
+      <c r="D26" s="18"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C27" s="11">
-        <v>255248220255</v>
+        <v>255235235255</v>
       </c>
       <c r="D27" s="19"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C28" s="11">
-        <v>255235235255</v>
-      </c>
-      <c r="D28" s="20"/>
+        <v>197245251250</v>
+      </c>
+      <c r="D28" s="30"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C29" s="11">
-        <v>197245251250</v>
-      </c>
-      <c r="D29" s="31"/>
+        <v>236246255250</v>
+      </c>
+      <c r="D29" s="20"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="11">
-        <v>236246255250</v>
-      </c>
-      <c r="D30" s="21"/>
+      <c r="A30" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="11">
-        <v>255248220250</v>
-      </c>
-      <c r="D31" s="19"/>
+        <v>31</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="11">
-        <v>255235235250</v>
-      </c>
-      <c r="D32" s="20"/>
+        <v>4</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="11">
-        <v>242255242250</v>
-      </c>
-      <c r="D33" s="18"/>
+        <v>6</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="B34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="22"/>
+        <v>13</v>
+      </c>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="6"/>
+      <c r="A37" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="D38" s="22"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="D39" s="22"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="D40" s="22"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D42" s="23"/>
+      <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" s="23"/>
+        <v>39</v>
+      </c>
+      <c r="D43" s="24"/>
+      <c r="E43" s="6"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="23"/>
+        <v>40</v>
+      </c>
+      <c r="D44" s="25"/>
+      <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="B45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="26"/>
+      <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D46" s="24"/>
-      <c r="E46" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="D46" s="27"/>
+      <c r="E46" s="9"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="6"/>
+      <c r="A47" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="7"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="8"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="9"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
